--- a/biology/Botanique/Caldesia_parnassifolia/Caldesia_parnassifolia.xlsx
+++ b/biology/Botanique/Caldesia_parnassifolia/Caldesia_parnassifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La caldésie à feuilles de parnassie, également flûteau à feuilles de parnassie (Caldesia parnassifolia), est une espèce de plante à fleurs aquatique ou amphibie[2] de la famille des Alismataceae, que l'on trouve principalement dans les eaux stagnantes.
-En absence de floraison, elle peut être confondue avec le plantain d’eau (Alisma plantago-aquatica L.), dont elle se distingue par le port dressé de ses feuilles à base rétrécie ou l’Hydrocharis des grenouilles (Hydrocharis morsus-ranae L.) qui possède des feuilles circulaires[2].
-Elle pousse généralement dans des milieux plutôt acides, rarement calcaires[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La caldésie à feuilles de parnassie, également flûteau à feuilles de parnassie (Caldesia parnassifolia), est une espèce de plante à fleurs aquatique ou amphibie de la famille des Alismataceae, que l'on trouve principalement dans les eaux stagnantes.
+En absence de floraison, elle peut être confondue avec le plantain d’eau (Alisma plantago-aquatica L.), dont elle se distingue par le port dressé de ses feuilles à base rétrécie ou l’Hydrocharis des grenouilles (Hydrocharis morsus-ranae L.) qui possède des feuilles circulaires.
+Elle pousse généralement dans des milieux plutôt acides, rarement calcaires.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fécondation peut se faire par le vent ou les insectes pollinisateur. Une reproduction végétative peut également s'opérer grâce aux turions de la plante[3]. À maturité, les fruits se détachent, flottent pendant quelques jours puis germent au fond de l’eau[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fécondation peut se faire par le vent ou les insectes pollinisateur. Une reproduction végétative peut également s'opérer grâce aux turions de la plante. À maturité, les fruits se détachent, flottent pendant quelques jours puis germent au fond de l’eau.
 			fleur.
 			feuilles.
 			turions.
